--- a/plots/countries/plot data/Liechtenstein.xlsx
+++ b/plots/countries/plot data/Liechtenstein.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0254056880185896</v>
+        <v>0.0248466440427891</v>
       </c>
     </row>
     <row r="3">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00679685085103158</v>
+        <v>0.00355935975718243</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0253961770295715</v>
+        <v>0.0248461535339767</v>
       </c>
     </row>
     <row r="12">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00942535700230903</v>
+        <v>-0.012664559071416</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0246856116042802</v>
+        <v>0.0241363263526986</v>
       </c>
     </row>
     <row r="21">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00180955490991908</v>
+        <v>-0.00143135813444496</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0235240988370149</v>
+        <v>0.0230101130422555</v>
       </c>
     </row>
     <row r="30">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.00156465305090387</v>
+        <v>-0.00480661358571127</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0236537839608216</v>
+        <v>0.0231350473792986</v>
       </c>
     </row>
     <row r="39">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>0.018273895698592</v>
+        <v>0.0150308876733412</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0235145754576247</v>
+        <v>0.0229767557914725</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00445220439182564</v>
+        <v>0.00120814887613528</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02372749521275</v>
+        <v>0.0231401072511349</v>
       </c>
     </row>
     <row r="57">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0041040090268668</v>
+        <v>-0.00734911203300056</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0233478229851012</v>
+        <v>0.0227418032901014</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0936011805804002</v>
+        <v>0.0936011909744719</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0375910838165014</v>
+        <v>0.0375911028876738</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0869378713007294</v>
+        <v>0.0869379818052016</v>
       </c>
     </row>
     <row r="71">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>0.012783834147717</v>
+        <v>0.00898728166561232</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0228973423391692</v>
+        <v>0.0222468686620296</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>0.101670432150481</v>
+        <v>0.101670442011781</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0403379891357877</v>
+        <v>0.040338011479585</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0865493289991377</v>
+        <v>0.0865494712105999</v>
       </c>
     </row>
     <row r="80">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00461608132615037</v>
+        <v>0.000871391959683801</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0218937030400921</v>
+        <v>0.0212730028923006</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0953596396369464</v>
+        <v>0.0953596460637987</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>0.039801590425846</v>
+        <v>0.0398016046603644</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0906876891890074</v>
+        <v>0.0906877860847273</v>
       </c>
     </row>
     <row r="89">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00325179788797217</v>
+        <v>-0.0004412845539888</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0212467030003613</v>
+        <v>0.0206859456717727</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0884276702523886</v>
+        <v>0.0884277178299532</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0364021703446809</v>
+        <v>0.0364022771912765</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0915246464177905</v>
+        <v>0.0915252822085966</v>
       </c>
     </row>
     <row r="98">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0293518258738985</v>
+        <v>0.025709108820688</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00168672812402886</v>
+        <v>0.00168717495477103</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0223681834407415</v>
+        <v>0.0218283842953883</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0893638691831088</v>
+        <v>0.0893639146201942</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0363841965420033</v>
+        <v>0.0363842808540465</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>0.08810641599111</v>
+        <v>0.0881069399168687</v>
       </c>
     </row>
     <row r="107">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00545406933367355</v>
+        <v>0.00186165999872225</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.001688818812209</v>
+        <v>0.00168909507246387</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0227401410054332</v>
+        <v>0.0221789227374487</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0975883425657238</v>
+        <v>0.0975883851660346</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>0.037856916431882</v>
+        <v>0.0378570021355608</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0840440707620039</v>
+        <v>0.0840445981555729</v>
       </c>
     </row>
     <row r="116">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00618825930641512</v>
+        <v>0.00264609536310803</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00169560669781439</v>
+        <v>0.00169566532382612</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0229020894218391</v>
+        <v>0.022339163838309</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>0.103455687660648</v>
+        <v>0.103455694558172</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0411639626872374</v>
+        <v>0.0411639787592121</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0838077393621485</v>
+        <v>0.0838078309705186</v>
       </c>
     </row>
     <row r="125">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00683185907198499</v>
+        <v>0.00399085256953811</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00170836811098075</v>
+        <v>0.00170865290491772</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0229036496105524</v>
+        <v>0.022369511691529</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>0.105800959411517</v>
+        <v>0.105800959775167</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0398017548817215</v>
+        <v>0.0398017556106262</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0822519273948838</v>
+        <v>0.0822519323165698</v>
       </c>
     </row>
     <row r="134">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>0.00898747764954844</v>
+        <v>0.00618758976794623</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>0.00171524873485544</v>
+        <v>0.00171553024140569</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0235506134116092</v>
+        <v>0.0229674061943202</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>0.106274565413884</v>
+        <v>0.106274573443771</v>
       </c>
     </row>
     <row r="139">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0391352546279762</v>
+        <v>0.0391352752841055</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0818405328563938</v>
+        <v>0.0818305913206614</v>
       </c>
     </row>
     <row r="143">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00896141415658603</v>
+        <v>0.00620256060104688</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00169091981280256</v>
+        <v>0.00169081453770268</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0246489519596363</v>
+        <v>0.0240200848967006</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>0.109907215748618</v>
+        <v>0.10990721691705</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0405035520870533</v>
+        <v>0.0405035550789573</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0792492384286083</v>
+        <v>0.0792381255819425</v>
       </c>
     </row>
     <row r="152">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0138051163333781</v>
+        <v>0.0110872152208274</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00171679003290612</v>
+        <v>0.00171605316777141</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0250335522607047</v>
+        <v>0.0243917976638125</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0822564087231794</v>
+        <v>0.0822563824879533</v>
       </c>
     </row>
     <row r="157">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0338735225519899</v>
+        <v>0.0338734627978655</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0834163486595779</v>
+        <v>0.0833819991282067</v>
       </c>
     </row>
     <row r="161">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0230285690798945</v>
+        <v>0.020351437034225</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00171937480676166</v>
+        <v>0.0017186624906236</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0252474926286101</v>
+        <v>0.0246254595090741</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0938857889677243</v>
+        <v>0.0938857036395914</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0363316740449769</v>
+        <v>0.0363314586732359</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0878338845382302</v>
+        <v>0.0877960676623742</v>
       </c>
     </row>
     <row r="170">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0251060147010568</v>
+        <v>0.0224694281770053</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00174740959746105</v>
+        <v>0.00174678528538839</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0251387582749673</v>
+        <v>0.0244519131456878</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0944529479712525</v>
+        <v>0.0944529171644959</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0275391015228723</v>
+        <v>0.0275390226591214</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0818844125197803</v>
+        <v>0.0818683709859963</v>
       </c>
     </row>
     <row r="179">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>0.021519578464413</v>
+        <v>0.0188871101233954</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00170885147286994</v>
+        <v>0.001709520872208</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0242807850322906</v>
+        <v>0.0236151433657526</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0852033000030775</v>
+        <v>0.0852032794001717</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0260630333199646</v>
+        <v>0.0260629815657205</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0777140794910869</v>
+        <v>0.0776894214485662</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00879636258829221</v>
+        <v>0.00879635177926694</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0198990216433723</v>
+        <v>0.0172689974029465</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00172621405981652</v>
+        <v>0.00172035562436947</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0250594584585732</v>
+        <v>0.0244036868405551</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0746824707873862</v>
+        <v>0.0746824665349722</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0235522324556673</v>
+        <v>0.0235522161478422</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0768573129273965</v>
+        <v>0.0768258298647175</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.00922241017258973</v>
+        <v>0.00922240870018489</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0235685723353703</v>
+        <v>0.0084234485570014</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00175454461694111</v>
+        <v>0.00174827187873676</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0253918745219889</v>
+        <v>0.0247355947361257</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0783348473360313</v>
+        <v>0.078334843980105</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>0.025704724009678</v>
+        <v>0.0257047098425405</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0798607721091366</v>
+        <v>0.0798265406832567</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0095467755743577</v>
+        <v>0.00954677320676521</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0236962485885703</v>
+        <v>0.00844117744086436</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00173859896457463</v>
+        <v>0.00173414771770265</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0241992824291342</v>
+        <v>0.0235548267928186</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0849224113147644</v>
+        <v>0.0849224102936856</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>0.026380542921084</v>
+        <v>0.0263805397296346</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0795680806451245</v>
+        <v>0.0795431662639916</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0096781731368731</v>
+        <v>0.00967817191403216</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0158618885706406</v>
+        <v>0.00325975912263402</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.00173720366084042</v>
+        <v>0.00173911868670174</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0246135207689343</v>
+        <v>0.0239396696298445</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>0.058855920541146</v>
+        <v>0.058855922164343</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0273167786356418</v>
+        <v>0.0273167849457796</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0737118360478956</v>
+        <v>0.0736823375671883</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00985444181087534</v>
+        <v>0.0098544412255459</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0156227639503887</v>
+        <v>0.00303894774025181</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00162965867878503</v>
+        <v>0.00162735637067104</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0244208312060655</v>
+        <v>0.0237967935696105</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0695320823629494</v>
+        <v>0.0695320960977522</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0275743000208595</v>
+        <v>0.0275743537253384</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0617347798973696</v>
+        <v>0.0617097333012155</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00986388918825277</v>
+        <v>0.00986388690604576</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0123688639998352</v>
+        <v>0.0011898935251515</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00164673442825267</v>
+        <v>0.00164484164078268</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0244611619325513</v>
+        <v>0.0238303885202193</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0624624833980701</v>
+        <v>0.0624623961378197</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0259294077372191</v>
+        <v>0.0259290481146373</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0602873476027671</v>
+        <v>0.0602543224486499</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00949572794480144</v>
+        <v>0.00949572698817405</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0102531523878327</v>
+        <v>-0.000278785198883937</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.00163166381698961</v>
+        <v>0.00163685972120389</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0238228406438238</v>
+        <v>0.0232506843225487</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.066356918094359</v>
+        <v>0.0663567450149144</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0276513006808556</v>
+        <v>0.0276505895559076</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0605836164328215</v>
+        <v>0.0605452949003025</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00978640543508994</v>
+        <v>0.00978640508125667</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0114927705631776</v>
+        <v>0.000335292290698125</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00163387434761542</v>
+        <v>0.00163911202794399</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0242903087536439</v>
+        <v>0.0237414613433254</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>0.05862410863601</v>
+        <v>0.0586237307567146</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0245543784441955</v>
+        <v>0.0245533870656169</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0584965697731693</v>
+        <v>0.0584516516591152</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00996092603969195</v>
+        <v>0.00996092323692251</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0223546888784174</v>
+        <v>0.00944224935710257</v>
       </c>
     </row>
     <row r="262">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0251144028026414</v>
+        <v>0.0246221982859363</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0654076252206466</v>
+        <v>0.0654073240618964</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0240769558263636</v>
+        <v>0.0240761935682599</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0570429750361036</v>
+        <v>0.0570026023546019</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00963503760284147</v>
+        <v>0.00963503357369588</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0119754478037647</v>
+        <v>0.00242325875861856</v>
       </c>
     </row>
     <row r="271">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0253094586151774</v>
+        <v>0.0247453813410291</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0650478982843463</v>
+        <v>0.0650479888231583</v>
       </c>
     </row>
     <row r="274">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0228053642163886</v>
+        <v>0.0228055788760158</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0524843713063979</v>
+        <v>0.052464149396179</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00905248711565277</v>
+        <v>0.00905248471528591</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00152398192268827</v>
+        <v>-0.00515477098130263</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.00164172264516525</v>
+        <v>0.0016488786370224</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0249380655885513</v>
+        <v>0.0243434231917224</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>0.065170069065641</v>
+        <v>0.0651597948998646</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0231814520233122</v>
+        <v>0.0231815116990315</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>0.00257768768829969</v>
+        <v>0.00259155016629969</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0558661582987982</v>
+        <v>0.0558427539278538</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>0.00849795851667419</v>
+        <v>0.00849125153737228</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.00311488326290891</v>
+        <v>-0.00837967265642464</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00166125032107101</v>
+        <v>0.00168106030710673</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0248463758888372</v>
+        <v>0.0242246206105683</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0557677772991764</v>
+        <v>0.055754093867679</v>
       </c>
     </row>
     <row r="292">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0212814332515492</v>
+        <v>0.0212814313224564</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00230900505167184</v>
+        <v>0.00232742068667184</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>0.0501296809797479</v>
+        <v>0.050113222930221</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>0.00814171200062746</v>
+        <v>0.00813417253078781</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.00114300075835227</v>
+        <v>-0.00729302973128663</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00167158473434265</v>
+        <v>0.00173735763323257</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.0242401141147767</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.0555584894419566</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.00128444265261428</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.0198238212971017</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.00286737361683791</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.054069081145187</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.00775322484974944</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.00730269196629934</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.00174539588117441</v>
       </c>
     </row>
   </sheetData>
